--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3978766.094481648</v>
+        <v>3976878.512965246</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>554318.1194569221</v>
+        <v>137992.0343764503</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>64.09761735390636</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>233.6257157225932</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -744,13 +744,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804554011</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231968</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
         <v>104.3883541553076</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>128.4678304511573</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>258.9290323586482</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>256.0487344383289</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>275.3850989652558</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>115.2373148110768</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>73.31370764131968</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>236.0147821672647</v>
+        <v>272.1823096573625</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>25.31590541686235</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>139.3733281349268</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274125</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>45.70554433428578</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,13 +1537,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>172.7935996261252</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274225</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,13 +1765,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1816,22 +1816,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>139.1537278750033</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>149.4253808307658</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,13 +1895,13 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385028</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>146.4330574210984</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2290,19 +2290,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U22" t="n">
-        <v>210.9685212521344</v>
+        <v>286.2373523985774</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>237.6821551249384</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
@@ -2476,22 +2476,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>122.3137095599315</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>86.57214560940935</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>286.2373523985774</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896905</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2719,19 +2719,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>5.107731335945374</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>33.08927902528018</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2843,7 +2843,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965524</v>
+        <v>93.41221638965531</v>
       </c>
       <c r="E31" t="n">
-        <v>36.60092856329134</v>
+        <v>91.23070601801213</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.2177913943742</v>
       </c>
       <c r="G31" t="n">
         <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897901</v>
+        <v>93.71057173897908</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571487</v>
+        <v>55.21598883571494</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523567</v>
+        <v>54.76109577523575</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>86.18652692092363</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857173</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3661,25 +3661,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898721</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G43" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789545</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898712</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857165</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692846</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329054</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373688</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789542</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S46" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539625</v>
       </c>
       <c r="T46" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287485</v>
       </c>
       <c r="U46" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689366</v>
       </c>
       <c r="V46" t="n">
         <v>184.0057531941873</v>
@@ -4198,7 +4198,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593964</v>
       </c>
       <c r="Y46" t="n">
         <v>150.4527632224541</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1611.619444146874</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="C2" t="n">
-        <v>1242.656927206462</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="D2" t="n">
-        <v>1242.656927206462</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="E2" t="n">
-        <v>856.868674608218</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="F2" t="n">
-        <v>445.8827698186105</v>
+        <v>861.3583373640508</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>443.3945292622377</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V2" t="n">
-        <v>2388.358616186807</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2388.358616186807</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2388.358616186807</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1998.219284210996</v>
+        <v>1272.344242153658</v>
       </c>
     </row>
     <row r="3">
@@ -4392,10 +4392,10 @@
         <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4419,13 +4419,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018223</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>365.6939024587812</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C4" t="n">
-        <v>365.6939024587812</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D4" t="n">
-        <v>365.6939024587812</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E4" t="n">
-        <v>365.6939024587812</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F4" t="n">
-        <v>365.6939024587812</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>365.6939024587812</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036446</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>365.6939024587812</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T4" t="n">
-        <v>365.6939024587812</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="U4" t="n">
-        <v>365.6939024587812</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="V4" t="n">
-        <v>365.6939024587812</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="W4" t="n">
-        <v>365.6939024587812</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="X4" t="n">
-        <v>365.6939024587812</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y4" t="n">
-        <v>365.6939024587812</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1546.944160717209</v>
+        <v>1095.753074569373</v>
       </c>
       <c r="C5" t="n">
-        <v>1177.981643776797</v>
+        <v>1095.753074569373</v>
       </c>
       <c r="D5" t="n">
-        <v>819.715945170047</v>
+        <v>737.4873759626223</v>
       </c>
       <c r="E5" t="n">
-        <v>819.715945170047</v>
+        <v>478.852290671381</v>
       </c>
       <c r="F5" t="n">
-        <v>812.7704444208435</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2169.723949158869</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>1485.892406545184</v>
       </c>
       <c r="X5" t="n">
-        <v>2323.683332757143</v>
+        <v>1485.892406545184</v>
       </c>
       <c r="Y5" t="n">
-        <v>1933.544000781331</v>
+        <v>1095.753074569373</v>
       </c>
     </row>
     <row r="6">
@@ -4620,55 +4620,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>170.3443099123612</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064344</v>
+        <v>170.3443099123612</v>
       </c>
       <c r="D7" t="n">
-        <v>728.1289842064344</v>
+        <v>170.3443099123612</v>
       </c>
       <c r="E7" t="n">
-        <v>580.2158906240413</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F7" t="n">
-        <v>433.3259431261309</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>264.3261428644633</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>351.9927747426009</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>351.9927747426009</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1732.515907621104</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="C8" t="n">
-        <v>1363.553390680693</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
         <v>952.5674858910851</v>
@@ -4799,13 +4799,13 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224076</v>
@@ -4814,7 +4814,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2458.750321152299</v>
+        <v>1718.614835556512</v>
       </c>
       <c r="W8" t="n">
-        <v>2105.981665882184</v>
+        <v>1718.614835556512</v>
       </c>
       <c r="X8" t="n">
-        <v>1732.515907621104</v>
+        <v>1718.614835556512</v>
       </c>
       <c r="Y8" t="n">
-        <v>1732.515907621104</v>
+        <v>1328.4755035807</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>773.5003462121388</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1297.64725977017</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1851.373795869721</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2291.509718890065</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.4805193761945</v>
+        <v>373.0594214943677</v>
       </c>
       <c r="C10" t="n">
-        <v>377.5443364482876</v>
+        <v>373.0594214943677</v>
       </c>
       <c r="D10" t="n">
-        <v>227.4276970359519</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E10" t="n">
-        <v>79.51460345355875</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245968</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245968</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245968</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245968</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245968</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245968</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>373.0594214943677</v>
       </c>
     </row>
     <row r="11">
@@ -5027,43 +5027,43 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805475</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822467</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>222.5746515181232</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L12" t="n">
-        <v>836.4717212750119</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M12" t="n">
-        <v>1604.839867667473</v>
+        <v>1323.128242957076</v>
       </c>
       <c r="N12" t="n">
-        <v>2192.176613678825</v>
+        <v>2127.539821221227</v>
       </c>
       <c r="O12" t="n">
-        <v>2440.930027762787</v>
+        <v>2376.293235305189</v>
       </c>
       <c r="P12" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>738.7219969042603</v>
+        <v>564.1830073829217</v>
       </c>
       <c r="C13" t="n">
-        <v>692.5547804049818</v>
+        <v>395.2468244550148</v>
       </c>
       <c r="D13" t="n">
-        <v>542.438140992646</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E13" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
         <v>779.0639759471192</v>
@@ -5215,7 +5215,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
         <v>1498.916270557902</v>
@@ -5239,10 +5239,10 @@
         <v>920.3704617344999</v>
       </c>
       <c r="X13" t="n">
-        <v>920.3704617345001</v>
+        <v>745.8314722131613</v>
       </c>
       <c r="Y13" t="n">
-        <v>920.3704617345001</v>
+        <v>745.8314722131614</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822478</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823794</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514089</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5291,7 +5291,7 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
         <v>4454.632848899128</v>
@@ -5300,28 +5300,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L15" t="n">
-        <v>1288.32563221405</v>
+        <v>738.0704661731478</v>
       </c>
       <c r="M15" t="n">
-        <v>1819.161927111988</v>
+        <v>1429.974243308181</v>
       </c>
       <c r="N15" t="n">
-        <v>2623.573505376138</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="O15" t="n">
-        <v>2623.573505376138</v>
+        <v>2023.248313029761</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>414.0663679705858</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471195</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387593</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011509</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952639</v>
+        <v>924.2761171510765</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583034</v>
+        <v>634.8589471141159</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028587</v>
+        <v>634.8589471141159</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>414.0663679705858</v>
       </c>
     </row>
     <row r="17">
@@ -5513,22 +5513,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
         <v>4454.632848899128</v>
@@ -5546,19 +5546,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5598,22 +5598,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="L18" t="n">
-        <v>97.21709146028587</v>
+        <v>229.0376539332494</v>
       </c>
       <c r="M18" t="n">
-        <v>629.3975440735811</v>
+        <v>549.3729734629512</v>
       </c>
       <c r="N18" t="n">
-        <v>1433.809122337732</v>
+        <v>1353.784551727102</v>
       </c>
       <c r="O18" t="n">
-        <v>2103.272883640391</v>
+        <v>2023.248313029761</v>
       </c>
       <c r="P18" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="F19" t="n">
         <v>97.21709146028587</v>
@@ -5671,16 +5671,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1239.928987906498</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1239.928987906498</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>950.8003491200559</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706318</v>
+        <v>696.115860914169</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336712</v>
+        <v>696.115860914169</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028587</v>
+        <v>468.1263100161517</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5747,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5765,31 +5765,31 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>229.0376539332494</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>229.0376539332494</v>
       </c>
       <c r="L21" t="n">
-        <v>1288.32563221405</v>
+        <v>229.0376539332494</v>
       </c>
       <c r="M21" t="n">
-        <v>2056.693778606511</v>
+        <v>549.3729734629512</v>
       </c>
       <c r="N21" t="n">
-        <v>2623.573505376138</v>
+        <v>1353.784551727102</v>
       </c>
       <c r="O21" t="n">
-        <v>2623.573505376138</v>
+        <v>2023.248313029761</v>
       </c>
       <c r="P21" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028573</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028576</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028579</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5938,22 +5938,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>862.1113288466631</v>
+        <v>786.0822064765185</v>
       </c>
       <c r="V22" t="n">
-        <v>607.4268406407763</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W22" t="n">
-        <v>318.0096706038157</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038157</v>
+        <v>318.009670603816</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
         <v>1701.093169003441</v>
@@ -5975,64 +5975,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>97.21709146028584</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M24" t="n">
-        <v>334.288126757867</v>
+        <v>1672.759814717971</v>
       </c>
       <c r="N24" t="n">
-        <v>1138.699705022018</v>
+        <v>2017.280470355589</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>665.6859735286134</v>
+        <v>566.6879222525852</v>
       </c>
       <c r="C25" t="n">
-        <v>542.1367719529251</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="D25" t="n">
-        <v>392.0201325405893</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471195</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
         <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1300.394555393052</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557903</v>
+        <v>1076.609140182557</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>787.4805013961153</v>
       </c>
       <c r="V25" t="n">
-        <v>955.103143565574</v>
+        <v>787.4805013961153</v>
       </c>
       <c r="W25" t="n">
-        <v>665.6859735286134</v>
+        <v>787.4805013961153</v>
       </c>
       <c r="X25" t="n">
-        <v>665.6859735286134</v>
+        <v>787.4805013961153</v>
       </c>
       <c r="Y25" t="n">
-        <v>665.6859735286134</v>
+        <v>566.6879222525852</v>
       </c>
     </row>
     <row r="26">
@@ -6212,28 +6212,28 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
         <v>3183.709822619127</v>
@@ -6242,13 +6242,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231263</v>
@@ -6291,40 +6291,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028584</v>
+        <v>327.180197328635</v>
       </c>
       <c r="M27" t="n">
-        <v>334.288126757867</v>
+        <v>1095.548343721096</v>
       </c>
       <c r="N27" t="n">
-        <v>1138.699705022018</v>
+        <v>1899.959921985247</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>208.7516828383384</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="C28" t="n">
-        <v>208.7516828383384</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D28" t="n">
-        <v>208.7516828383384</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E28" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F28" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1493.756945976139</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1269.971530765645</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="U28" t="n">
-        <v>980.8428919792032</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="V28" t="n">
-        <v>726.1584037733163</v>
+        <v>930.7122276578363</v>
       </c>
       <c r="W28" t="n">
-        <v>436.7412337363557</v>
+        <v>641.2950576208757</v>
       </c>
       <c r="X28" t="n">
-        <v>208.7516828383384</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="Y28" t="n">
-        <v>208.7516828383384</v>
+        <v>413.3055067228584</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6461,13 +6461,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6488,25 +6488,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6543,25 +6543,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028584</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M30" t="n">
-        <v>334.288126757867</v>
+        <v>1220.905903778934</v>
       </c>
       <c r="N30" t="n">
-        <v>1138.699705022018</v>
+        <v>2025.317482043085</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,43 +6595,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>604.5641438163784</v>
+        <v>750.8748194215252</v>
       </c>
       <c r="C31" t="n">
-        <v>491.3888261698423</v>
+        <v>637.699501774989</v>
       </c>
       <c r="D31" t="n">
-        <v>397.0330520388774</v>
+        <v>543.3437276440239</v>
       </c>
       <c r="E31" t="n">
-        <v>360.0624171264619</v>
+        <v>451.1914993430016</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264619</v>
+        <v>360.0624171264622</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276534</v>
+        <v>247.6479607276535</v>
       </c>
       <c r="H31" t="n">
         <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.0876362933501</v>
       </c>
       <c r="L31" t="n">
-        <v>671.450905366751</v>
+        <v>671.4509053667508</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962054</v>
+        <v>997.6688721962051</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
         <v>1611.390407353693</v>
@@ -6640,7 +6640,7 @@
         <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
         <v>1880.811824899271</v>
@@ -6649,22 +6649,22 @@
         <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167071</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737484</v>
+        <v>1369.704507242554</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818938</v>
+        <v>1136.048202486964</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652472</v>
+        <v>963.819516870317</v>
       </c>
       <c r="Y31" t="n">
-        <v>730.4517433652472</v>
+        <v>876.7624189703942</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>436.8967109626374</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L33" t="n">
-        <v>1050.793780719526</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M33" t="n">
-        <v>1819.161927111988</v>
+        <v>1604.839867667473</v>
       </c>
       <c r="N33" t="n">
-        <v>2623.573505376138</v>
+        <v>1949.360523305091</v>
       </c>
       <c r="O33" t="n">
-        <v>2623.573505376138</v>
+        <v>2198.113937389053</v>
       </c>
       <c r="P33" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,43 +6832,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108325</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229666</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506719</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083198</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504505</v>
+        <v>320.8847398504506</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103122</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982967</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
         <v>1688.186490350129</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6911,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6956,31 +6956,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>97.21709146028584</v>
+        <v>1132.677479060057</v>
       </c>
       <c r="M36" t="n">
-        <v>334.288126757867</v>
+        <v>1453.012798589759</v>
       </c>
       <c r="N36" t="n">
-        <v>1138.699705022018</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7096,7 +7096,7 @@
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649691</v>
@@ -7117,7 +7117,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7163,7 +7163,7 @@
         <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805463</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7251,28 +7251,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L39" t="n">
-        <v>1288.32563221405</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M39" t="n">
-        <v>2056.693778606511</v>
+        <v>1220.905903778934</v>
       </c>
       <c r="N39" t="n">
-        <v>2623.573505376138</v>
+        <v>2025.317482043085</v>
       </c>
       <c r="O39" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="P39" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108319</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229661</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506714</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083197</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504505</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7333,7 +7333,7 @@
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649691</v>
@@ -7354,28 +7354,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045196</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010305</v>
       </c>
     </row>
     <row r="41">
@@ -7388,28 +7388,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7491,25 +7491,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>436.8967109626376</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
-        <v>1050.793780719526</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M42" t="n">
-        <v>1819.161927111988</v>
+        <v>1429.974243308181</v>
       </c>
       <c r="N42" t="n">
-        <v>2623.573505376138</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="O42" t="n">
-        <v>2623.573505376138</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P42" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7594,7 +7594,7 @@
         <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
@@ -7612,7 +7612,7 @@
         <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7637,10 +7637,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7725,28 +7725,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028584</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L45" t="n">
-        <v>97.21709146028584</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M45" t="n">
-        <v>865.5852378527472</v>
+        <v>1387.227105931296</v>
       </c>
       <c r="N45" t="n">
-        <v>1669.996816116898</v>
+        <v>1731.747761568914</v>
       </c>
       <c r="O45" t="n">
-        <v>2339.460577419557</v>
+        <v>1980.501175652876</v>
       </c>
       <c r="P45" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108323</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504506</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7810,31 +7810,31 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649682</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860495</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.186490350128</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184155</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384655</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U46" t="n">
         <v>1489.892037025262</v>
@@ -7843,13 +7843,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010309</v>
       </c>
     </row>
   </sheetData>
@@ -8784,10 +8784,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>302.9195583843506</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9018,13 +9018,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9246,7 +9246,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>271.706463085898</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,10 +9480,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9492,13 +9492,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,13 +9717,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9957,16 +9957,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>267.129972772237</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10191,13 +10191,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10440,13 +10440,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,19 +10665,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10914,13 +10914,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11145,19 +11145,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>453.2146533629218</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,10 +11376,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>121.5412767643421</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,13 +23425,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>52.91605576291192</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23653,13 +23653,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23704,22 +23704,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>82.39383318338592</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>102.7122624930622</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,7 +23893,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>51.48775256250482</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338569</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24142,7 +24142,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24181,16 +24181,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>75.26883114644272</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>14.45548819888958</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>44.93311153869637</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>111.3486643741939</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24607,19 +24607,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,19 +24646,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>192.8130786476579</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>219.0483642985478</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24844,10 +24844,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>54.6297774547207</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437413</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>77.19486980261412</v>
       </c>
     </row>
     <row r="32">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>645197.9485672198</v>
+        <v>645197.9485672199</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>645197.9485672198</v>
+        <v>645197.9485672199</v>
       </c>
     </row>
     <row r="11">
@@ -26314,43 +26314,43 @@
         <v>759463.6371244621</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244621</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="E2" t="n">
         <v>723403.7605147613</v>
       </c>
       <c r="F2" t="n">
-        <v>723403.7605147613</v>
+        <v>723403.7605147612</v>
       </c>
       <c r="G2" t="n">
-        <v>723403.7605147611</v>
+        <v>723403.7605147614</v>
       </c>
       <c r="H2" t="n">
-        <v>723403.7605147613</v>
+        <v>723403.7605147612</v>
       </c>
       <c r="I2" t="n">
+        <v>723403.760514761</v>
+      </c>
+      <c r="J2" t="n">
         <v>723403.7605147612</v>
       </c>
-      <c r="J2" t="n">
-        <v>723403.7605147611</v>
-      </c>
       <c r="K2" t="n">
-        <v>752620.9540887492</v>
+        <v>752620.954088749</v>
       </c>
       <c r="L2" t="n">
         <v>759463.6371244611</v>
       </c>
       <c r="M2" t="n">
-        <v>759463.6371244611</v>
+        <v>759463.6371244608</v>
       </c>
       <c r="N2" t="n">
-        <v>759463.6371244611</v>
+        <v>759463.637124461</v>
       </c>
       <c r="O2" t="n">
-        <v>759463.6371244611</v>
+        <v>759463.6371244609</v>
       </c>
       <c r="P2" t="n">
         <v>759463.637124461</v>
@@ -26372,40 +26372,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
+        <v>44162.60530284564</v>
+      </c>
+      <c r="L3" t="n">
+        <v>10342.90680086687</v>
+      </c>
+      <c r="M3" t="n">
+        <v>134801.0152338373</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>44162.6053028457</v>
-      </c>
-      <c r="L3" t="n">
-        <v>10342.90680086683</v>
-      </c>
-      <c r="M3" t="n">
-        <v>134801.0152338371</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>4.547473508864641e-11</v>
-      </c>
-      <c r="P3" t="n">
-        <v>44162.60530284567</v>
       </c>
     </row>
     <row r="4">
@@ -26418,46 +26418,46 @@
         <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758462</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905757999</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758286</v>
+        <v>787.7936905758437</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758875</v>
+        <v>787.7936905758514</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758411</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905759103</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477242</v>
+        <v>18952.41620477239</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189631</v>
       </c>
       <c r="N4" t="n">
         <v>23206.58093189634</v>
       </c>
       <c r="O4" t="n">
-        <v>23206.58093189636</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="P4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189637</v>
       </c>
     </row>
     <row r="5">
@@ -26479,10 +26479,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26491,16 +26491,16 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="M5" t="n">
         <v>97715.1058200254</v>
-      </c>
-      <c r="M5" t="n">
-        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
@@ -26522,43 +26522,43 @@
         <v>-52422.459334111</v>
       </c>
       <c r="C6" t="n">
-        <v>537545.4198804336</v>
+        <v>537545.4198804338</v>
       </c>
       <c r="D6" t="n">
-        <v>537545.4198804338</v>
+        <v>537545.4198804341</v>
       </c>
       <c r="E6" t="n">
-        <v>105468.6043985727</v>
+        <v>105371.1452726003</v>
       </c>
       <c r="F6" t="n">
-        <v>630628.6408754688</v>
+        <v>630531.1817494964</v>
       </c>
       <c r="G6" t="n">
-        <v>630628.6408754686</v>
+        <v>630531.1817494968</v>
       </c>
       <c r="H6" t="n">
-        <v>630628.6408754688</v>
+        <v>630531.1817494966</v>
       </c>
       <c r="I6" t="n">
-        <v>630628.6408754687</v>
+        <v>630531.1817494965</v>
       </c>
       <c r="J6" t="n">
-        <v>454205.4216828756</v>
+        <v>454107.9625569037</v>
       </c>
       <c r="K6" t="n">
-        <v>592877.7240509083</v>
+        <v>592859.2303129738</v>
       </c>
       <c r="L6" t="n">
         <v>628199.0435716725</v>
       </c>
       <c r="M6" t="n">
-        <v>503740.9351387023</v>
+        <v>503740.9351387017</v>
       </c>
       <c r="N6" t="n">
-        <v>638541.9503725393</v>
+        <v>638541.9503725392</v>
       </c>
       <c r="O6" t="n">
-        <v>638541.9503725393</v>
+        <v>638541.9503725391</v>
       </c>
       <c r="P6" t="n">
         <v>594379.3450696935</v>
@@ -26701,7 +26701,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964062</v>
+      </c>
+      <c r="M2" t="n">
         <v>68.13189012964065</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964062</v>
       </c>
-      <c r="N2" t="n">
-        <v>68.13189012964062</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964068</v>
-      </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
     </row>
     <row r="3">
@@ -26738,22 +26738,22 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26774,7 +26774,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26790,16 +26790,16 @@
         <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26923,19 +26923,19 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>2.842170943040401e-14</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
       <c r="K2" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108353</v>
+        <v>12.92863350108358</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
     </row>
     <row r="3">
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.926370499018</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,16 +27160,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>2.842170943040401e-14</v>
       </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
       <c r="P2" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>349.6865526668886</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>90.29705704176391</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27470,7 +27470,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>27.70305839063784</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,7 +27591,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>27.35284188332952</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>125.8816356339329</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>138.3990710555391</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,22 +27780,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>31.1966478354924</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>82.85718120047547</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27862,7 +27862,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>91.73747630287025</v>
+        <v>55.56994881277245</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>120.1051426060689</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>79.211325217168</v>
       </c>
     </row>
     <row r="11">
@@ -28345,7 +28345,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-1.221113634493629e-12</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-5.86741080007012e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-3.116189327207012e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
     </row>
   </sheetData>
@@ -31139,7 +31139,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>167.9005868329995</v>
       </c>
       <c r="O3" t="n">
         <v>193.3156655923047</v>
@@ -31148,7 +31148,7 @@
         <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>60.29709682323551</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
         <v>50.44659727034983</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,25 +31355,25 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>56.9811619494227</v>
       </c>
       <c r="M6" t="n">
-        <v>162.4518126576413</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,16 +31513,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
         <v>193.1674799081577</v>
@@ -31534,25 +31534,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>160.6967431133302</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>60.29709682323596</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>245.2687781552867</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -31862,7 +31862,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677465</v>
@@ -31987,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,37 +31999,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,40 +32072,40 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>212.6272478467031</v>
+        <v>375.3216743488196</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,10 +32224,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,37 +32236,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,7 +32309,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -32321,28 +32321,28 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>213.9849829127208</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,10 +32461,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,37 +32473,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,40 +32546,40 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>133.8986746322817</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,31 +32786,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>95.829871426875</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677465</v>
@@ -32950,7 +32950,7 @@
         <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M26" t="n">
         <v>586.1623499565519</v>
@@ -33032,22 +33032,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
         <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677465</v>
@@ -33181,7 +33181,7 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33269,22 +33269,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
         <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>87.71167780314255</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677465</v>
@@ -33500,7 +33500,7 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>216.4869287318324</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>387.8120847358985</v>
@@ -33509,19 +33509,19 @@
         <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>164.4358785485907</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677465</v>
@@ -33676,7 +33676,7 @@
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647499</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
@@ -33734,22 +33734,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>230.591728014694</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>341.0678223458549</v>
@@ -33758,7 +33758,7 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677465</v>
@@ -33971,31 +33971,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>44.205232157654</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677465</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34211,34 +34211,34 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>216.4869287318327</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -34457,19 +34457,19 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>102.4943942860912</v>
+        <v>156.2519421180777</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677464</v>
@@ -34787,7 +34787,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730077</v>
       </c>
       <c r="M6" t="n">
-        <v>486.0228424856228</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>392.9827086369152</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,13 +35331,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>126.6237980382196</v>
@@ -35495,22 +35495,22 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>593.2694404155069</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>168.9451509700203</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>536.1982776746847</v>
+        <v>698.8927041768012</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,25 +35966,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>133.1520833060238</v>
       </c>
       <c r="M18" t="n">
-        <v>537.5560127407024</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>133.1520833060238</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N21" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
@@ -36285,7 +36285,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056037</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>239.4656922197789</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>347.0959462591601</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187473</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,7 +36598,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M26" t="n">
         <v>805.3296502221117</v>
@@ -36677,25 +36677,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>239.4656922197789</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>124.5337283277925</v>
       </c>
       <c r="P27" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>239.4656922197789</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>338.9777526354276</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412266</v>
+        <v>67.71102679412257</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
         <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043189</v>
+        <v>94.4289566004318</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>343.110726770052</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>620.0980502594834</v>
@@ -37157,19 +37157,19 @@
         <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>348.9242397741976</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,7 +37239,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37324,7 +37324,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
         <v>59.8253897034981</v>
@@ -37382,22 +37382,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>462.877693538279</v>
       </c>
       <c r="M36" t="n">
-        <v>239.4656922197789</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>525.5561835714618</v>
@@ -37406,7 +37406,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>295.4713069899391</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37780,7 +37780,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>343.1107267700523</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>311.0806194409034</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P45" t="n">
-        <v>286.9827555116981</v>
+        <v>340.7403033436847</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L46" t="n">
         <v>318.3460770095692</v>
       </c>
       <c r="M46" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086133</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
